--- a/biology/Botanique/Olea_obovata/Olea_obovata.xlsx
+++ b/biology/Botanique/Olea_obovata/Olea_obovata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea obovata (Merr) Kiew est un végétal appartenant au genre Olea. C'est un petit arbre qui pousse aux Philippines. Il a été reconnu et classé dans le sous-genre Tetrapilus par P.S. Green lors de sa révision du genre Olea (2002) avec ses synonymes et sa description botanique (taxon 14 Tetrapilus).
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes botaniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Linociera obovata Merr., Ph. J. Sci., C 10:338 (1915). Type : Philippines, Ramos in Bur. Sci. 15014 (holotype PNH ɬ?, isotype K).</t>
         </is>
@@ -543,8 +557,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Appareil végétatif
-Forme : petit arbre ;
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Forme : petit arbre ;
 Ramure : jeunes pousses minutieusement puérulentes ;
 Sexualisation : monoïque ;
 Foliarisation : feuilles coriaces ;
@@ -553,9 +572,43 @@
 apex obtus et arrondi à aigu ou acuminé
 bords sont entiers
 apex arrondi à aigu, parfois très brièvement et très légèrement acuminé, l'extrémité émoussée.
-Nervures : nervuration de couleur sombre sur les deux faces.
-Appareil reproducteur
-inflorescences: axillaires denses, fleurs abondantes, minutieusement pubérulentes.
+Nervures : nervuration de couleur sombre sur les deux faces.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olea_obovata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_obovata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>inflorescences: axillaires denses, fleurs abondantes, minutieusement pubérulentes.
 pédicelles ont 0,5 à 2 mm de long.
 fleurs mâles : les seules observées.
 anatomie florale :
@@ -563,9 +616,43 @@
 corolle épaisse formant un tube de 0,5 mm de long à lobes involués de 1 mm de long ;
 anthères des étamines ellipsoïdes, de 0,8 mm de long avec un appendice terminal ; les filets de 2 mm de long.
 ovaire non-observé ;
-fruit : drupe ellipsoïde de 6 à 7 mm par 4,5 à 5 mm.
-Répartition géographique
-Le matériel examiné provient des Philippines :
+fruit : drupe ellipsoïde de 6 à 7 mm par 4,5 à 5 mm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olea_obovata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_obovata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description botanique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le matériel examiné provient des Philippines :
 Luzon : Laguna, San Antobio (1912),
 Nueva Ecija : Monte Umingan (1916),
 Tayabas : Monte Binuang (1917),
@@ -573,57 +660,61 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Olea_obovata</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_obovata</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Olea_obovata</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_obovata</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
